--- a/data/trans_camb/P2403-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2403-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2403-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2403-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 5,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 3,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 3,59</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>609,81%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>999,86%</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,23; 4,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 1,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 0,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,79; 2,33</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,24</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,8; 5,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,88; 4,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 2,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,08; 4,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 3,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 3,66</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,14</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 4,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,58; 5,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 2,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 8,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 3,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,5; 6,25</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>160,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>188,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>414,59%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1653,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>205,8%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>440,95%</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,65; 593,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,98; 790,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,61; 646,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>141,22; 1121,13</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,33; 6,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 5,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 3,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 3,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 3,47</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,95</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,02; 4,6</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 6,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 2,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,21</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 3,04</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 3,69</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 5,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 3,77</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 2,33</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 2,02</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,4; 3,32</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 2,38</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1106,41%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>670,06%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1452,66%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1021,59%</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 2,59</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 2,78</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 0,65</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 2,23</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 1,37</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 2,14</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>235,44%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>284,85%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>965,59%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>206,25%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>423,48%</t>
         </is>
       </c>
     </row>
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 1282,66</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,09; 1390,61</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,69; 962,65</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>97,82; 1582,45</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 2,98</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,62; 2,81</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 1,14</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 2,13</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 1,83</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,58; 2,33</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>602,65%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>574,74%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1113,14%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2546,32%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>677,7%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>868,36%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>284,9; 1281,42</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>275,4; 1305,15</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>171,5; —</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>603,14; —</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>346,18; 1291,49</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>502,11; 1676,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2403-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2403-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,11; 5,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 3,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 3,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>836,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1126,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,63</t>
+          <t>0,46; 6,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 2,55</t>
+          <t>0,38; 3,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,22</t>
+          <t>1,08; 4,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>160,39%</t>
+          <t>198,69%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>414,59%</t>
+          <t>537,96%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>205,8%</t>
+          <t>256,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,65; 593,82</t>
+          <t>-0,94; 857,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>37,61; 646,26</t>
+          <t>53,04; 724,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
